--- a/matlab/validation_examples/test_profile_mixed_109km.xlsx
+++ b/matlab/validation_examples/test_profile_mixed_109km.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80824876\Meetings\ITUR\SG3\P.452\matlab\v2.15.02.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80824876\Meetings\ITUR\SG3\P.452\matlab\P452_v17.0\create_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="7968" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="16575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Path profile" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Path profile parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Transmission losses" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,37 +176,37 @@
     <t>Trans-Horizon</t>
   </si>
   <si>
-    <t>Lb_ref</t>
-  </si>
-  <si>
-    <t>Lbfsg_ref</t>
-  </si>
-  <si>
-    <t>Lb0p_ref</t>
-  </si>
-  <si>
-    <t>Lb0b_ref</t>
-  </si>
-  <si>
-    <t>Ldsph_ref</t>
-  </si>
-  <si>
-    <t>Ld50_ref</t>
-  </si>
-  <si>
-    <t>Ldp_ref</t>
-  </si>
-  <si>
-    <t>Lbs_ref</t>
-  </si>
-  <si>
-    <t>Lba_ref</t>
+    <t>Lb</t>
+  </si>
+  <si>
+    <t>Lbfsg</t>
+  </si>
+  <si>
+    <t>Lb0p</t>
+  </si>
+  <si>
+    <t>Lb0b</t>
+  </si>
+  <si>
+    <t>Ldsph</t>
+  </si>
+  <si>
+    <t>Ld50</t>
+  </si>
+  <si>
+    <t>Ldp</t>
+  </si>
+  <si>
+    <t>Lbs</t>
+  </si>
+  <si>
+    <t>Lba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -300,9 +300,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -335,9 +335,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -521,9 +521,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -633,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -677,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -754,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -809,7 +809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -930,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -1755,9 +1755,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>50.73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1936,9 +1936,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>9617.7596153846207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>-0.63421180034671898</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>-1.39003967378667</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>9.3089492252938495</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>119.523264729979</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>44.582947563336397</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>121.894116656847</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>4.8689504250483999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>66.222792694217702</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>3.2827313890624401</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2109,9 +2109,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -2154,34 +2154,34 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>137.034083348114</v>
+        <v>137.03407798411155</v>
       </c>
       <c r="D3">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E3">
-        <v>112.475217262774</v>
+        <v>112.37521726277429</v>
       </c>
       <c r="F3">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G3">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H3">
         <v>40.8030263895999</v>
       </c>
       <c r="I3">
-        <v>29.854509629942601</v>
+        <v>29.854509629942619</v>
       </c>
       <c r="J3">
-        <v>146.95402060991199</v>
+        <v>146.95402060991196</v>
       </c>
       <c r="K3">
         <v>137.05658875481501</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -2189,34 +2189,34 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>135.75672552685</v>
+        <v>135.69823653325295</v>
       </c>
       <c r="D4">
-        <v>113.270555875379</v>
+        <v>113.17055587537881</v>
       </c>
       <c r="E4">
-        <v>106.395277874844</v>
+        <v>106.29527787484406</v>
       </c>
       <c r="F4">
-        <v>110.257691874975</v>
+        <v>110.15769187497533</v>
       </c>
       <c r="G4">
         <v>32.182197279709797</v>
       </c>
       <c r="H4">
-        <v>39.423560102465302</v>
+        <v>39.42356010246526</v>
       </c>
       <c r="I4">
-        <v>30.5467921410301</v>
+        <v>30.546792141030089</v>
       </c>
       <c r="J4">
-        <v>137.63705282471199</v>
+        <v>137.6370528247121</v>
       </c>
       <c r="K4">
-        <v>141.361576071868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141.36157607186772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.15</v>
       </c>
@@ -2224,19 +2224,19 @@
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>139.140230322392</v>
+        <v>139.14022958767686</v>
       </c>
       <c r="D5">
-        <v>116.818260159269</v>
+        <v>116.71826015926854</v>
       </c>
       <c r="E5">
-        <v>109.942982158734</v>
+        <v>109.84298215873379</v>
       </c>
       <c r="F5">
-        <v>113.80539615886499</v>
+        <v>113.70539615886506</v>
       </c>
       <c r="G5">
-        <v>32.235409550293703</v>
+        <v>32.235409550293696</v>
       </c>
       <c r="H5">
         <v>40.116837711464498</v>
@@ -2245,13 +2245,13 @@
         <v>30.0153282871767</v>
       </c>
       <c r="J5">
-        <v>143.133290252205</v>
+        <v>143.13329025220543</v>
       </c>
       <c r="K5">
-        <v>139.51622280772801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139.5162228077281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.22500000000000001</v>
       </c>
@@ -2259,34 +2259,34 @@
         <v>0.1</v>
       </c>
       <c r="C6">
-        <v>135.75538836222401</v>
+        <v>135.75537484226686</v>
       </c>
       <c r="D6">
-        <v>120.392443584462</v>
+        <v>120.29244358446164</v>
       </c>
       <c r="E6">
-        <v>113.517165583927</v>
+        <v>113.41716558392689</v>
       </c>
       <c r="F6">
-        <v>117.37957958405801</v>
+        <v>117.27957958405815</v>
       </c>
       <c r="G6">
-        <v>32.713550933945697</v>
+        <v>32.713550933945733</v>
       </c>
       <c r="H6">
-        <v>41.141956037308198</v>
+        <v>41.141956037308141</v>
       </c>
       <c r="I6">
-        <v>29.832786484015202</v>
+        <v>29.832786484015191</v>
       </c>
       <c r="J6">
-        <v>148.500978781442</v>
+        <v>148.50097878144217</v>
       </c>
       <c r="K6">
-        <v>135.76117566532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135.76117566532031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.33750000000000002</v>
       </c>
@@ -2294,34 +2294,34 @@
         <v>0.1</v>
       </c>
       <c r="C7">
-        <v>130.226078651671</v>
+        <v>130.2255573351502</v>
       </c>
       <c r="D7">
-        <v>124.009001677067</v>
+        <v>123.90900167706668</v>
       </c>
       <c r="E7">
-        <v>117.133723676532</v>
+        <v>117.03372367653193</v>
       </c>
       <c r="F7">
-        <v>120.996137676663</v>
+        <v>120.8961376766632</v>
       </c>
       <c r="G7">
         <v>33.683708723408301</v>
       </c>
       <c r="H7">
-        <v>42.5490612118505</v>
+        <v>42.549061211850486</v>
       </c>
       <c r="I7">
-        <v>29.938179906521601</v>
+        <v>29.938179906521576</v>
       </c>
       <c r="J7">
-        <v>153.75578413466701</v>
+        <v>153.75578413466707</v>
       </c>
       <c r="K7">
-        <v>130.21276796082799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130.21276796082819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.50624999999999998</v>
       </c>
@@ -2329,34 +2329,34 @@
         <v>0.1</v>
       </c>
       <c r="C8">
-        <v>125.137642309372</v>
+        <v>125.12031408718451</v>
       </c>
       <c r="D8">
-        <v>127.67214105243799</v>
+        <v>127.57214105243796</v>
       </c>
       <c r="E8">
-        <v>120.796863051903</v>
+        <v>120.69686305190321</v>
       </c>
       <c r="F8">
-        <v>124.659277052034</v>
+        <v>124.55927705203447</v>
       </c>
       <c r="G8">
-        <v>35.2209453052863</v>
+        <v>35.220945305286335</v>
       </c>
       <c r="H8">
-        <v>44.410051234151297</v>
+        <v>44.410051234151339</v>
       </c>
       <c r="I8">
-        <v>30.3654666603408</v>
+        <v>30.365466660340825</v>
       </c>
       <c r="J8">
-        <v>158.901270156062</v>
+        <v>158.90127015606228</v>
       </c>
       <c r="K8">
-        <v>124.653117889155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124.65311788915547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.75937500000000002</v>
       </c>
@@ -2364,34 +2364,34 @@
         <v>0.1</v>
       </c>
       <c r="C9">
-        <v>129.252741330438</v>
+        <v>129.23817539115785</v>
       </c>
       <c r="D9">
-        <v>131.354491457525</v>
+        <v>131.25449145752475</v>
       </c>
       <c r="E9">
-        <v>124.47921345699</v>
+        <v>124.37921345699</v>
       </c>
       <c r="F9">
-        <v>128.34162745712101</v>
+        <v>128.24162745712127</v>
       </c>
       <c r="G9">
-        <v>37.2853141367045</v>
+        <v>37.285314136704535</v>
       </c>
       <c r="H9">
-        <v>46.694465540792798</v>
+        <v>46.694465540792763</v>
       </c>
       <c r="I9">
-        <v>31.0828972386293</v>
+        <v>31.082897238629279</v>
       </c>
       <c r="J9">
-        <v>163.90925119702101</v>
+        <v>163.90925119702132</v>
       </c>
       <c r="K9">
-        <v>128.85177869284101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128.85177869284095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1390625000000001</v>
       </c>
@@ -2399,34 +2399,34 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>133.42279957575599</v>
+        <v>133.41093651675993</v>
       </c>
       <c r="D10">
-        <v>135.01275436602199</v>
+        <v>134.91275436602234</v>
       </c>
       <c r="E10">
-        <v>128.137476365488</v>
+        <v>128.03747636548758</v>
       </c>
       <c r="F10">
-        <v>131.999890365619</v>
+        <v>131.89989036561886</v>
       </c>
       <c r="G10">
-        <v>39.865691958315999</v>
+        <v>39.865691958316013</v>
       </c>
       <c r="H10">
-        <v>49.409308295972998</v>
+        <v>49.409308295973041</v>
       </c>
       <c r="I10">
-        <v>31.9820824898068</v>
+        <v>31.982082489806785</v>
       </c>
       <c r="J10">
-        <v>168.735872024033</v>
+        <v>168.73587202403277</v>
       </c>
       <c r="K10">
-        <v>133.101069468193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133.1010694681928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.7085937499999999</v>
       </c>
@@ -2434,34 +2434,34 @@
         <v>0.1</v>
       </c>
       <c r="C11">
-        <v>137.644320117587</v>
+        <v>137.6350077439501</v>
       </c>
       <c r="D11">
-        <v>138.630328265662</v>
+        <v>138.53032826566232</v>
       </c>
       <c r="E11">
-        <v>131.75505026512801</v>
+        <v>131.65505026512756</v>
       </c>
       <c r="F11">
-        <v>135.617464265259</v>
+        <v>135.51746426525884</v>
       </c>
       <c r="G11">
-        <v>43.086674589236999</v>
+        <v>43.086674589236964</v>
       </c>
       <c r="H11">
-        <v>52.700696509482803</v>
+        <v>52.700696509482789</v>
       </c>
       <c r="I11">
-        <v>33.003881804801097</v>
+        <v>33.003881804801111</v>
       </c>
       <c r="J11">
-        <v>173.363067332203</v>
+        <v>173.3630673322034</v>
       </c>
       <c r="K11">
-        <v>137.39520138476701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137.39520138476681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.5628906250000001</v>
       </c>
@@ -2469,34 +2469,34 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <v>141.94886562996999</v>
+        <v>141.94186018258998</v>
       </c>
       <c r="D12">
-        <v>142.224372957665</v>
+        <v>142.12437295766512</v>
       </c>
       <c r="E12">
-        <v>135.34909495713001</v>
+        <v>135.24909495713035</v>
       </c>
       <c r="F12">
-        <v>139.211508957262</v>
+        <v>139.11150895726163</v>
       </c>
       <c r="G12">
-        <v>47.047550216531903</v>
+        <v>47.047550216531874</v>
       </c>
       <c r="H12">
-        <v>56.6882946055456</v>
+        <v>56.688294605545636</v>
       </c>
       <c r="I12">
-        <v>34.438393819410798</v>
+        <v>34.438393819410841</v>
       </c>
       <c r="J12">
-        <v>177.803177947986</v>
+        <v>177.80317794798637</v>
       </c>
       <c r="K12">
-        <v>141.763711674668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141.7637116746676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.8443359374999999</v>
       </c>
@@ -2504,34 +2504,34 @@
         <v>0.1</v>
       </c>
       <c r="C13">
-        <v>146.38766601598101</v>
+        <v>146.38264706700224</v>
       </c>
       <c r="D13">
-        <v>145.83047520388899</v>
+        <v>145.73047520388863</v>
       </c>
       <c r="E13">
-        <v>138.955197203354</v>
+        <v>138.85519720335387</v>
       </c>
       <c r="F13">
-        <v>142.817611203485</v>
+        <v>142.71761120348515</v>
       </c>
       <c r="G13">
-        <v>51.795400792193497</v>
+        <v>51.795400792193512</v>
       </c>
       <c r="H13">
-        <v>61.435771604171997</v>
+        <v>61.435771604172032</v>
       </c>
       <c r="I13">
-        <v>36.244842040664402</v>
+        <v>36.24484204066443</v>
       </c>
       <c r="J13">
-        <v>182.079889807982</v>
+        <v>182.07988980798228</v>
       </c>
       <c r="K13">
-        <v>146.25635572117301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>146.25635572117255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5.7665039062499996</v>
       </c>
@@ -2539,34 +2539,34 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>151.03676661742799</v>
+        <v>151.03336520827415</v>
       </c>
       <c r="D14">
-        <v>149.507771805971</v>
+        <v>149.40777180597064</v>
       </c>
       <c r="E14">
-        <v>142.63249380543601</v>
+        <v>142.53249380543588</v>
       </c>
       <c r="F14">
-        <v>146.49490780556701</v>
+        <v>146.39490780556716</v>
       </c>
       <c r="G14">
-        <v>57.398749934778202</v>
+        <v>57.398749934778181</v>
       </c>
       <c r="H14">
-        <v>67.023713759933301</v>
+        <v>67.023713759933315</v>
       </c>
       <c r="I14">
-        <v>38.049938506396401</v>
+        <v>38.049938506396444</v>
       </c>
       <c r="J14">
-        <v>186.22366135229601</v>
+        <v>186.22366135229598</v>
       </c>
       <c r="K14">
-        <v>150.94848934865601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150.94848934865564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.6497558593750004</v>
       </c>
@@ -2574,34 +2574,34 @@
         <v>0.1</v>
       </c>
       <c r="C15">
-        <v>156.049833264081</v>
+        <v>156.0476686143036</v>
       </c>
       <c r="D15">
-        <v>153.39156857970499</v>
+        <v>153.29156857970452</v>
       </c>
       <c r="E15">
-        <v>146.51629057917</v>
+        <v>146.41629057916975</v>
       </c>
       <c r="F15">
-        <v>150.378704579301</v>
+        <v>150.27870457930103</v>
       </c>
       <c r="G15">
-        <v>63.9457423096162</v>
+        <v>63.94574230961608</v>
       </c>
       <c r="H15">
-        <v>73.548283647362297</v>
+        <v>73.548283647362155</v>
       </c>
       <c r="I15">
-        <v>39.8511662009292</v>
+        <v>39.851166200929207</v>
       </c>
       <c r="J15">
-        <v>190.29195735702299</v>
+        <v>190.29195735702345</v>
       </c>
       <c r="K15">
-        <v>155.99398451923699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155.99398451923651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12.9746337890625</v>
       </c>
@@ -2609,34 +2609,34 @@
         <v>0.1</v>
       </c>
       <c r="C16">
-        <v>161.94936502329</v>
+        <v>161.94808183733343</v>
       </c>
       <c r="D16">
-        <v>157.98415583052099</v>
+        <v>157.88415583052148</v>
       </c>
       <c r="E16">
-        <v>151.10887782998699</v>
+        <v>151.00887782998672</v>
       </c>
       <c r="F16">
-        <v>154.97129183011799</v>
+        <v>154.871291830118</v>
       </c>
       <c r="G16">
-        <v>71.543938768705203</v>
+        <v>71.543938768705189</v>
       </c>
       <c r="H16">
-        <v>81.1219663012849</v>
+        <v>81.121966301284857</v>
       </c>
       <c r="I16">
-        <v>41.647479526730798</v>
+        <v>41.647479526730805</v>
       </c>
       <c r="J16">
-        <v>194.478432146551</v>
+        <v>194.47843214655057</v>
       </c>
       <c r="K16">
-        <v>161.916384470476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161.91638447047563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19.461950683593798</v>
       </c>
@@ -2644,34 +2644,34 @@
         <v>0.1</v>
       </c>
       <c r="C17">
-        <v>175.57580386383901</v>
+        <v>175.57510175241788</v>
       </c>
       <c r="D17">
-        <v>170.10331878806201</v>
+        <v>170.00331878806261</v>
       </c>
       <c r="E17">
-        <v>163.22804078752799</v>
+        <v>163.12804078752785</v>
       </c>
       <c r="F17">
-        <v>167.09045478765901</v>
+        <v>166.99045478765913</v>
       </c>
       <c r="G17">
-        <v>80.321273044502803</v>
+        <v>80.321273044502846</v>
       </c>
       <c r="H17">
-        <v>89.875479314338506</v>
+        <v>89.875479314338577</v>
       </c>
       <c r="I17">
-        <v>43.4386949687987</v>
+        <v>43.438694968798735</v>
       </c>
       <c r="J17">
-        <v>201.26862291229</v>
+        <v>201.26862291229054</v>
       </c>
       <c r="K17">
-        <v>175.557802966118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>175.55780296611829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>29.192926025390602</v>
       </c>
@@ -2679,34 +2679,34 @@
         <v>0.1</v>
       </c>
       <c r="C18">
-        <v>181.41199647003</v>
+        <v>181.41164545926316</v>
       </c>
       <c r="D18">
-        <v>174.205985133773</v>
+        <v>174.10598513377346</v>
       </c>
       <c r="E18">
-        <v>167.330707133239</v>
+        <v>167.2307071332387</v>
       </c>
       <c r="F18">
-        <v>171.19312113337</v>
+        <v>171.09312113336998</v>
       </c>
       <c r="G18">
-        <v>90.427829499968496</v>
+        <v>90.42782949996851</v>
       </c>
       <c r="H18">
-        <v>99.960313339084195</v>
+        <v>99.960313339084252</v>
       </c>
       <c r="I18">
-        <v>45.225092959448297</v>
+        <v>45.225092959448311</v>
       </c>
       <c r="J18">
-        <v>205.37248085631899</v>
+        <v>205.37248085631882</v>
       </c>
       <c r="K18">
-        <v>181.40301690710001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>181.40301690709964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>43.789389038085901</v>
       </c>
@@ -2714,34 +2714,34 @@
         <v>0.1</v>
       </c>
       <c r="C19">
-        <v>195.69021492771699</v>
+        <v>195.69005650512571</v>
       </c>
       <c r="D19">
-        <v>186.494565948363</v>
+        <v>186.3945659483629</v>
       </c>
       <c r="E19">
-        <v>179.61928794782801</v>
+        <v>179.51928794782813</v>
       </c>
       <c r="F19">
-        <v>183.48170194795901</v>
+        <v>183.38170194795941</v>
       </c>
       <c r="G19">
-        <v>102.038275058525</v>
+        <v>102.03827505852496</v>
       </c>
       <c r="H19">
-        <v>111.55170629177999</v>
+        <v>111.55170629178049</v>
       </c>
       <c r="I19">
-        <v>47.007172199358799</v>
+        <v>47.00717219935882</v>
       </c>
       <c r="J19">
-        <v>215.95922978328201</v>
+        <v>215.95922978328204</v>
       </c>
       <c r="K19">
-        <v>195.68631677232199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>195.6863167723223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50</v>
       </c>
@@ -2749,34 +2749,34 @@
         <v>0.1</v>
       </c>
       <c r="C20">
-        <v>221.40887183720801</v>
+        <v>221.40875270323588</v>
       </c>
       <c r="D20">
-        <v>211.50153842645699</v>
+        <v>211.40153842645671</v>
       </c>
       <c r="E20">
-        <v>204.626260425922</v>
+        <v>204.52626042592195</v>
       </c>
       <c r="F20">
-        <v>208.488674426053</v>
+        <v>208.38867442605323</v>
       </c>
       <c r="G20">
-        <v>106.195798299111</v>
+        <v>106.19579829911093</v>
       </c>
       <c r="H20">
-        <v>115.70360130627</v>
+        <v>115.7036013062699</v>
       </c>
       <c r="I20">
-        <v>47.589265912385997</v>
+        <v>47.589265912385983</v>
       </c>
       <c r="J20">
-        <v>238.76747412707601</v>
+        <v>238.76747412707564</v>
       </c>
       <c r="K20">
-        <v>221.406517360603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>221.40651736060286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -2784,34 +2784,34 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>144.81472679056</v>
+        <v>144.717503127464</v>
       </c>
       <c r="D21">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E21">
-        <v>115.022588293015</v>
+        <v>114.9225882930152</v>
       </c>
       <c r="F21">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G21">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H21">
         <v>40.8030263895999</v>
       </c>
       <c r="I21">
-        <v>29.854509629942601</v>
+        <v>29.854509629942619</v>
       </c>
       <c r="J21">
-        <v>152.554691144869</v>
+        <v>152.5546911448688</v>
       </c>
       <c r="K21">
-        <v>149.30073520305601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149.30073520305598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -2819,34 +2819,34 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>146.91905077360099</v>
+        <v>146.82029064079629</v>
       </c>
       <c r="D22">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E22">
-        <v>116.556258473391</v>
+        <v>116.45625847339113</v>
       </c>
       <c r="F22">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G22">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H22">
         <v>40.8030263895999</v>
       </c>
       <c r="I22">
-        <v>30.390340993413101</v>
+        <v>30.390340993413052</v>
       </c>
       <c r="J22">
-        <v>156.41607712326299</v>
+        <v>156.41607712326277</v>
       </c>
       <c r="K22">
-        <v>164.927687617944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>164.92768761794409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -2854,19 +2854,19 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>149.16600459323899</v>
+        <v>149.06757371127867</v>
       </c>
       <c r="D23">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E23">
-        <v>117.175366557861</v>
+        <v>117.07536655786087</v>
       </c>
       <c r="F23">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G23">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H23">
         <v>40.8030263895999</v>
@@ -2875,13 +2875,13 @@
         <v>32.0256040436619</v>
       </c>
       <c r="J23">
-        <v>158.149005435053</v>
+        <v>158.14900543505289</v>
       </c>
       <c r="K23">
-        <v>174.49034717790499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174.4903471779046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.2</v>
       </c>
@@ -2889,34 +2889,34 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>150.709890402681</v>
+        <v>150.61174256823256</v>
       </c>
       <c r="D24">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E24">
-        <v>117.569959323256</v>
+        <v>117.46995932325609</v>
       </c>
       <c r="F24">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G24">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H24">
         <v>40.8030263895999</v>
       </c>
       <c r="I24">
-        <v>33.181292953067697</v>
+        <v>33.181292953067732</v>
       </c>
       <c r="J24">
-        <v>159.331309072767</v>
+        <v>159.33130907276689</v>
       </c>
       <c r="K24">
-        <v>181.96184157047901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>181.96184157047864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.2</v>
       </c>
@@ -2924,34 +2924,34 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>151.91753752493099</v>
+        <v>151.81965050800346</v>
       </c>
       <c r="D25">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E25">
-        <v>117.860215318011</v>
+        <v>117.76021531801106</v>
       </c>
       <c r="F25">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G25">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H25">
         <v>40.8030263895999</v>
       </c>
       <c r="I25">
-        <v>34.104593610129903</v>
+        <v>34.104593610129854</v>
       </c>
       <c r="J25">
-        <v>160.251909456475</v>
+        <v>160.25190945647475</v>
       </c>
       <c r="K25">
-        <v>188.27737589262401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>188.27737589262398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -2959,34 +2959,34 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>152.92676807386201</v>
+        <v>152.82912925027927</v>
       </c>
       <c r="D26">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E26">
-        <v>118.089928653767</v>
+        <v>117.98992865376708</v>
       </c>
       <c r="F26">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G26">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H26">
         <v>40.8030263895999</v>
       </c>
       <c r="I26">
-        <v>34.889748629249397</v>
+        <v>34.889748629249418</v>
       </c>
       <c r="J26">
-        <v>161.01928419129499</v>
+        <v>161.01928419129521</v>
       </c>
       <c r="K26">
-        <v>193.835034676048</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>193.83503467604845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.2</v>
       </c>
@@ -2994,34 +2994,34 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>153.80512600855201</v>
+        <v>153.70772740501204</v>
       </c>
       <c r="D27">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E27">
-        <v>118.28004817089899</v>
+        <v>118.18004817089867</v>
       </c>
       <c r="F27">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G27">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H27">
         <v>40.8030263895999</v>
       </c>
       <c r="I27">
-        <v>35.5834570953973</v>
+        <v>35.58345709539725</v>
       </c>
       <c r="J27">
-        <v>161.686728975421</v>
+        <v>161.68672897542129</v>
       </c>
       <c r="K27">
-        <v>198.84759168540899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>198.84759168540901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.2</v>
       </c>
@@ -3029,34 +3029,34 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>154.59104840195999</v>
+        <v>154.49388432019401</v>
       </c>
       <c r="D28">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E28">
-        <v>118.44223694048</v>
+        <v>118.34223694048002</v>
       </c>
       <c r="F28">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G28">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H28">
         <v>40.8030263895999</v>
       </c>
       <c r="I28">
-        <v>36.212543752604397</v>
+        <v>36.212543752604432</v>
       </c>
       <c r="J28">
-        <v>162.28481053103101</v>
+        <v>162.28481053103113</v>
       </c>
       <c r="K28">
-        <v>203.44433906541599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203.44433906541607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.2</v>
       </c>
@@ -3064,34 +3064,34 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>155.30867015711499</v>
+        <v>155.21173568491437</v>
       </c>
       <c r="D29">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E29">
-        <v>118.583660173121</v>
+        <v>118.48366017312107</v>
       </c>
       <c r="F29">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G29">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H29">
         <v>40.8030263895999</v>
       </c>
       <c r="I29">
-        <v>36.793995439243098</v>
+        <v>36.79399543924314</v>
       </c>
       <c r="J29">
-        <v>162.83305547395199</v>
+        <v>162.83305547395173</v>
       </c>
       <c r="K29">
-        <v>207.71068921819801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207.7106892181983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.2</v>
       </c>
@@ -3099,34 +3099,34 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>155.97426776357699</v>
+        <v>155.87755755128842</v>
       </c>
       <c r="D30">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E30">
-        <v>118.709036738237</v>
+        <v>118.60903673823682</v>
       </c>
       <c r="F30">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G30">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H30">
         <v>40.8030263895999</v>
       </c>
       <c r="I30">
-        <v>37.339359010513398</v>
+        <v>37.339359010513434</v>
       </c>
       <c r="J30">
-        <v>163.34508691699199</v>
+        <v>163.34508691699233</v>
       </c>
       <c r="K30">
-        <v>211.70650344580099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211.70650344580054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.2</v>
       </c>
@@ -3134,34 +3134,34 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>156.59945092552101</v>
+        <v>156.50295788646889</v>
       </c>
       <c r="D31">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E31">
-        <v>118.8216398675</v>
+        <v>118.72163986749963</v>
       </c>
       <c r="F31">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G31">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H31">
         <v>40.8030263895999</v>
       </c>
       <c r="I31">
-        <v>37.856930194245102</v>
+        <v>37.856930194245116</v>
       </c>
       <c r="J31">
-        <v>163.831254271858</v>
+        <v>163.83125427185763</v>
       </c>
       <c r="K31">
-        <v>215.47562982769199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215.47562982769193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.2</v>
       </c>
@@ -3169,34 +3169,34 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>157.192903998372</v>
+        <v>157.09661761689858</v>
       </c>
       <c r="D32">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E32">
-        <v>118.923833319713</v>
+        <v>118.82383331971334</v>
       </c>
       <c r="F32">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G32">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H32">
         <v>40.8030263895999</v>
       </c>
       <c r="I32">
-        <v>38.352949502571803</v>
+        <v>38.352949502571811</v>
       </c>
       <c r="J32">
-        <v>164.300218326124</v>
+        <v>164.3002183261242</v>
       </c>
       <c r="K32">
-        <v>219.051307520639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>219.0513075206386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.2</v>
       </c>
@@ -3204,34 +3204,34 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>157.76141767991001</v>
+        <v>157.6653214548902</v>
       </c>
       <c r="D33">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E33">
-        <v>119.01737993447701</v>
+        <v>118.9173799344773</v>
       </c>
       <c r="F33">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G33">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H33">
         <v>40.8030263895999</v>
       </c>
       <c r="I33">
-        <v>38.832305041395202</v>
+        <v>38.832305041395173</v>
       </c>
       <c r="J33">
-        <v>164.76017429890899</v>
+        <v>164.76017429890868</v>
       </c>
       <c r="K33">
-        <v>222.459434326729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>222.45943432672868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.2</v>
       </c>
@@ -3239,34 +3239,34 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>158.31055837276199</v>
+        <v>158.21462543743391</v>
       </c>
       <c r="D34">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E34">
-        <v>119.10362950363201</v>
+        <v>119.00362950363204</v>
       </c>
       <c r="F34">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G34">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H34">
         <v>40.8030263895999</v>
       </c>
       <c r="I34">
-        <v>39.298971383483298</v>
+        <v>39.298971383483327</v>
       </c>
       <c r="J34">
-        <v>165.220246281843</v>
+        <v>165.2202462818434</v>
       </c>
       <c r="K34">
-        <v>225.72064633905299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225.7206463390531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.2</v>
       </c>
@@ -3274,34 +3274,34 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>158.845177300145</v>
+        <v>158.74936174466873</v>
       </c>
       <c r="D35">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E35">
-        <v>119.183638515571</v>
+        <v>119.08363851557098</v>
       </c>
       <c r="F35">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G35">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H35">
         <v>40.8030263895999</v>
       </c>
       <c r="I35">
-        <v>39.756298977659</v>
+        <v>39.756298977659007</v>
       </c>
       <c r="J35">
-        <v>165.69302699230599</v>
+        <v>165.69302699230613</v>
       </c>
       <c r="K35">
-        <v>228.851697794389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228.85169779438885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.2</v>
       </c>
@@ -3309,34 +3309,34 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>159.369992314439</v>
+        <v>159.27420750644148</v>
       </c>
       <c r="D36">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E36">
-        <v>119.258249423747</v>
+        <v>119.15824942374702</v>
       </c>
       <c r="F36">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G36">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H36">
         <v>40.8030263895999</v>
       </c>
       <c r="I36">
-        <v>40.207215513934102</v>
+        <v>40.207215513934131</v>
       </c>
       <c r="J36">
-        <v>166.20193102827</v>
+        <v>166.20193102826951</v>
       </c>
       <c r="K36">
-        <v>231.86640874188899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>231.86640874188905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.2</v>
       </c>
@@ -3344,31 +3344,31 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>159.89149193323499</v>
+        <v>159.79551511399785</v>
       </c>
       <c r="D37">
-        <v>119.350495263309</v>
+        <v>119.25049526330903</v>
       </c>
       <c r="E37">
-        <v>119.328144822707</v>
+        <v>119.22814482270657</v>
       </c>
       <c r="F37">
-        <v>116.337631262906</v>
+        <v>116.23763126290555</v>
       </c>
       <c r="G37">
-        <v>32.522669918078599</v>
+        <v>32.52266991807857</v>
       </c>
       <c r="H37">
         <v>40.8030263895999</v>
       </c>
       <c r="I37">
-        <v>40.654374422248701</v>
+        <v>40.654374422248736</v>
       </c>
       <c r="J37">
-        <v>166.82475959144099</v>
+        <v>166.82475959144068</v>
       </c>
       <c r="K37">
-        <v>234.77633509101</v>
+        <v>234.77633509100997</v>
       </c>
     </row>
   </sheetData>
